--- a/data/dopetest-build.xlsx
+++ b/data/dopetest-build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FDCB36-16A1-43D1-B70F-663FC04032F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA87A0-26A5-4A82-8222-0248F657814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,6 +384,9 @@
                 <c:pt idx="0">
                   <c:v>42.3</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>11850.8</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>91.9</c:v>
                 </c:pt>
@@ -1419,7 +1422,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1467,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>11850.8</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
